--- a/task3/results/Excel/DistributionReturncodes.xlsx
+++ b/task3/results/Excel/DistributionReturncodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Programmieren\00_hochschule\BigData\task3\results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD400477-0D37-499B-80EC-97D528E217BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6541FBA0-6E62-4F0A-8BDD-BDA11D4348F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{C993CDE3-8AAF-46F0-8172-0CDABFE921B3}"/>
   </bookViews>
@@ -155,11 +155,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Distribution</a:t>
+              <a:t>Verteilung</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Returncodes</a:t>
+              <a:t> ReturnCodes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1063,15 +1063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>292891</xdr:colOff>
+      <xdr:colOff>292892</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>164305</xdr:rowOff>
+      <xdr:rowOff>164306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
